--- a/Manual_testcase.xlsx
+++ b/Manual_testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F22E8778-5F77-4D8A-920A-2E6EC023B420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A757C9E-93EB-4F94-9912-608D4B54C7A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="9" xr2:uid="{464B5BEE-8F88-4186-8958-467D811CCEF2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{464B5BEE-8F88-4186-8958-467D811CCEF2}"/>
   </bookViews>
   <sheets>
     <sheet name="TC001" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t xml:space="preserve">Test executed by : </t>
   </si>
   <si>
-    <t xml:space="preserve">Test execution by : </t>
-  </si>
-  <si>
     <t xml:space="preserve">Test overal status : </t>
   </si>
   <si>
@@ -547,6 +544,9 @@
   </si>
   <si>
     <t>Should return related information focusing on cricket information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test execution date : </t>
   </si>
 </sst>
 </file>
@@ -1043,12 +1043,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1072,9 +1066,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1168,6 +1159,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1975,7 +1975,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92975C93-587D-4F8B-AC5A-B44F597B2714}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12:G12"/>
     </sheetView>
   </sheetViews>
@@ -1991,15 +1991,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -2010,7 +2010,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="24"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -2019,7 +2019,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="24"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -2028,20 +2028,20 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:9" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2067,7 +2067,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2080,26 +2080,26 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
@@ -2114,26 +2114,26 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="66"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="28"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -2147,169 +2147,169 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="E15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="33" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>1</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
-        <v>1</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
-        <v>2</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="33">
+        <v>3</v>
+      </c>
+      <c r="B18" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="36">
-        <v>3</v>
-      </c>
-      <c r="B18" s="37" t="s">
+      <c r="C18" s="34"/>
+      <c r="D18" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="38" t="s">
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="36" t="s">
         <v>26</v>
-      </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="39" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
+      <c r="A21" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2339,8 +2339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591689EA-CDB1-4754-9B16-E551B825AA26}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2355,15 +2355,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -2374,7 +2374,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="24"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -2383,7 +2383,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="24"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -2392,20 +2392,20 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2444,26 +2444,26 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="64" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="A10" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
@@ -2478,26 +2478,26 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="A12" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="A13" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -2509,184 +2509,184 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="E15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="33" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>1</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
-        <v>1</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
-        <v>2</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
-        <v>3</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="57"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="55">
+      <c r="A19" s="52">
         <v>4</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="D19" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D19" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="62"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="59"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
+      <c r="A21" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2716,8 +2716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1BF2854-CEED-401F-B357-A69B79870EF1}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2732,15 +2732,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -2751,7 +2751,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="24"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -2760,7 +2760,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="24"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -2769,20 +2769,20 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -2821,26 +2821,26 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
@@ -2855,26 +2855,26 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="A12" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="A13" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -2886,199 +2886,199 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="E15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="33" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>1</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
-        <v>1</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
-        <v>2</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
-        <v>3</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="57"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="58">
+      <c r="A19" s="55">
         <v>4</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="54"/>
+    </row>
+    <row r="20" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="56">
+        <v>5</v>
+      </c>
+      <c r="B20" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="57"/>
-    </row>
-    <row r="20" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="59">
-        <v>5</v>
-      </c>
-      <c r="B20" s="37" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="39" t="s">
-        <v>39</v>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="36" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="A22" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3108,8 +3108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4DF0A8-CAD8-4ACE-A11D-6E1CAA2DA49D}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:G32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3124,15 +3124,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -3143,7 +3143,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="24"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -3152,7 +3152,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="24"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -3161,20 +3161,20 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3200,7 +3200,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3213,26 +3213,26 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
@@ -3247,26 +3247,26 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="A12" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="A13" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -3278,212 +3278,212 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="E15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="33" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>1</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
-        <v>1</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
-        <v>2</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
-        <v>3</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="57"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="58">
+      <c r="A19" s="55">
         <v>4</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="29"/>
+      <c r="B19" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="26"/>
       <c r="D19" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="57"/>
+        <v>36</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="59">
+      <c r="A20" s="56">
         <v>5</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="34"/>
+      <c r="D20" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="60" t="s">
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="59"/>
+    </row>
+    <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="56">
+        <v>6</v>
+      </c>
+      <c r="B21" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="62"/>
-    </row>
-    <row r="21" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="59">
-        <v>6</v>
-      </c>
-      <c r="B21" s="38" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="39"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="A23" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3514,7 +3514,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3529,15 +3529,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -3548,7 +3548,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="24"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -3557,7 +3557,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="24"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -3566,20 +3566,20 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -3592,7 +3592,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3605,7 +3605,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -3618,26 +3618,26 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
@@ -3652,26 +3652,26 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="A12" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="A13" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -3683,197 +3683,197 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="E15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="33" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>1</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
-        <v>1</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
-        <v>2</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
-        <v>3</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="57"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="58">
+      <c r="A19" s="55">
         <v>4</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="54"/>
+    </row>
+    <row r="20" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="56">
+        <v>5</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="57"/>
-    </row>
-    <row r="20" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="59">
-        <v>5</v>
-      </c>
-      <c r="B20" s="38" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="39"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="A22" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3903,8 +3903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DDA2FBC-68B1-4640-A18D-190B6ABE2932}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:G31"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3919,15 +3919,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -3938,7 +3938,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="24"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -3947,7 +3947,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="24"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -3956,20 +3956,20 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4008,26 +4008,26 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="64" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="A10" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
@@ -4042,26 +4042,26 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="A12" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="A13" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -4073,199 +4073,199 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="E15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="33" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>1</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
-        <v>1</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
-        <v>2</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
-        <v>3</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="57"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="58">
+      <c r="A19" s="55">
         <v>4</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="54"/>
+    </row>
+    <row r="20" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="56">
+        <v>5</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="57"/>
-    </row>
-    <row r="20" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="59">
-        <v>5</v>
-      </c>
-      <c r="B20" s="38" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="39" t="s">
-        <v>66</v>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="36" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="A22" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4295,8 +4295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0A1C9F-A726-4877-A60E-078097BD3998}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4311,15 +4311,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -4330,7 +4330,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="24"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -4339,7 +4339,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="24"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -4348,20 +4348,20 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4400,26 +4400,26 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="64" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="A10" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
@@ -4434,26 +4434,26 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="A12" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="A13" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -4465,212 +4465,212 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="E15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="33" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>1</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
-        <v>1</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
-        <v>2</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
-        <v>3</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="57"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="58">
+      <c r="A19" s="55">
         <v>4</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="54"/>
+    </row>
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="27">
+        <v>5</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="57"/>
-    </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
+      <c r="C20" s="27"/>
+      <c r="D20" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="59"/>
+    </row>
+    <row r="21" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="56">
         <v>5</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30" t="s">
+      <c r="B21" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="62"/>
-    </row>
-    <row r="21" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="59">
-        <v>5</v>
-      </c>
-      <c r="B21" s="38" t="s">
+      <c r="C21" s="34"/>
+      <c r="D21" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="39"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
+      <c r="A23" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="45"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="42"/>
     </row>
     <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="46"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="48"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4700,8 +4700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D06544-7870-4603-86EA-2F3C71E64CF9}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4716,15 +4716,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -4735,7 +4735,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="24"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -4744,7 +4744,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="24"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -4753,20 +4753,20 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -4779,7 +4779,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -4805,26 +4805,26 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="A10" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
@@ -4839,26 +4839,26 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="A12" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="A13" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -4870,197 +4870,197 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="E15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="33" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>1</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
-        <v>1</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
-        <v>2</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
-        <v>3</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="57"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="58">
+      <c r="A19" s="55">
         <v>4</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="54"/>
+    </row>
+    <row r="20" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="60">
+        <v>5</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="57"/>
-    </row>
-    <row r="20" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="63">
-        <v>5</v>
-      </c>
-      <c r="B20" s="38" t="s">
+      <c r="C20" s="35"/>
+      <c r="D20" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="39"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
+      <c r="A22" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="45"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="42"/>
     </row>
     <row r="31" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="46"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="48"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5091,7 +5091,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5106,15 +5106,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -5125,7 +5125,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="24"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -5134,7 +5134,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="24"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -5143,20 +5143,20 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5182,7 +5182,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5195,26 +5195,26 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="A10" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
@@ -5229,26 +5229,26 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="A12" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="A13" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -5260,182 +5260,182 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="E15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="33" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>1</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
-        <v>1</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
-        <v>2</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
-        <v>3</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="57"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="59">
+      <c r="A19" s="56">
         <v>4</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="39"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
+      <c r="A21" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -5466,7 +5466,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="E9" sqref="E9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5481,15 +5481,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="11"/>
@@ -5500,7 +5500,7 @@
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
-      <c r="G2" s="24"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
@@ -5509,7 +5509,7 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
-      <c r="G3" s="24"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
@@ -5518,20 +5518,20 @@
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
-      <c r="G4" s="24"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -5570,26 +5570,26 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>5</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="A10" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
@@ -5604,26 +5604,26 @@
       <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51"/>
+      <c r="A12" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="54"/>
+      <c r="A13" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
@@ -5635,182 +5635,182 @@
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="E15" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="33" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>1</v>
+      </c>
+      <c r="B16" s="26" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="34">
-        <v>1</v>
-      </c>
-      <c r="B16" s="29" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29" t="s">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>2</v>
+      </c>
+      <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="35"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
-        <v>2</v>
-      </c>
-      <c r="B17" s="29" t="s">
+      <c r="C17" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>3</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="35"/>
-    </row>
-    <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="34">
-        <v>3</v>
-      </c>
-      <c r="B18" s="29" t="s">
+      <c r="C18" s="26"/>
+      <c r="D18" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="57"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="63">
+      <c r="A19" s="60">
         <v>4</v>
       </c>
-      <c r="B19" s="38" t="s">
+      <c r="B19" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="39"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
+      <c r="A21" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="42"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="45"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="42"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="45"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="45"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="42"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="45"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="45"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="42"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="45"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="42"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="45"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="46"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="48"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="16">
